--- a/Documents/Product & Sprint Backlog Doc (1).xlsx
+++ b/Documents/Product & Sprint Backlog Doc (1).xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Satyam\Desktop\sprint2\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Satyam\Desktop\sprint2\Project_Documents\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4545" tabRatio="818" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="818" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="BneWorkBookProperties" sheetId="4" state="veryHidden" r:id="rId1"/>
@@ -705,7 +705,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="169">
   <si>
     <t>MoSCoW ID</t>
   </si>
@@ -1200,6 +1200,18 @@
   </si>
   <si>
     <t>Test the Project is working Fine Both angullar and spring boot.</t>
+  </si>
+  <si>
+    <t>31-04-2020</t>
+  </si>
+  <si>
+    <t>PECUNIABANK:012</t>
+  </si>
+  <si>
+    <t>Testing and Modification continue</t>
+  </si>
+  <si>
+    <t>to</t>
   </si>
 </sst>
 </file>
@@ -1441,7 +1453,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1702,6 +1714,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2314,8 +2329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I10" workbookViewId="0">
-      <selection activeCell="S26" sqref="S26"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="R31" sqref="R31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -5216,8 +5231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P53"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -5227,6 +5242,7 @@
     <col min="4" max="4" width="18.140625" customWidth="1"/>
     <col min="5" max="5" width="25.42578125" customWidth="1"/>
     <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="29.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5609,7 +5625,7 @@
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="95">
-        <v>43981</v>
+        <v>43951</v>
       </c>
       <c r="G15" s="87" t="s">
         <v>145</v>
@@ -5704,8 +5720,8 @@
         <v>140</v>
       </c>
       <c r="E19" s="8"/>
-      <c r="F19" s="21">
-        <v>43982</v>
+      <c r="F19" s="98" t="s">
+        <v>165</v>
       </c>
       <c r="G19" s="87" t="s">
         <v>117</v>
@@ -5774,8 +5790,8 @@
         <v>147</v>
       </c>
       <c r="E22" s="8"/>
-      <c r="F22" s="95">
-        <v>43982</v>
+      <c r="F22" s="94" t="s">
+        <v>165</v>
       </c>
       <c r="G22" s="87" t="s">
         <v>149</v>
@@ -5823,7 +5839,7 @@
       </c>
       <c r="E24" s="18"/>
       <c r="F24" s="96">
-        <v>43983</v>
+        <v>43952</v>
       </c>
       <c r="G24" s="93" t="s">
         <v>117</v>
@@ -5880,11 +5896,15 @@
       <c r="O26" s="39"/>
       <c r="P26" s="39"/>
     </row>
-    <row r="27" spans="1:16" s="4" customFormat="1">
+    <row r="27" spans="1:16" s="4" customFormat="1" ht="38.25">
       <c r="A27" s="18"/>
-      <c r="B27" s="16"/>
+      <c r="B27" s="16" t="s">
+        <v>166</v>
+      </c>
       <c r="C27" s="18"/>
-      <c r="D27" s="22"/>
+      <c r="D27" s="91" t="s">
+        <v>167</v>
+      </c>
       <c r="E27" s="18"/>
       <c r="F27" s="18"/>
       <c r="G27" s="18"/>
@@ -5898,16 +5918,24 @@
       <c r="O27" s="39"/>
       <c r="P27" s="39"/>
     </row>
-    <row r="28" spans="1:16" s="4" customFormat="1">
+    <row r="28" spans="1:16" s="4" customFormat="1" ht="25.5">
       <c r="A28" s="18"/>
       <c r="B28" s="18"/>
       <c r="C28" s="18"/>
       <c r="D28" s="22"/>
       <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
+      <c r="F28" s="96">
+        <v>43955</v>
+      </c>
+      <c r="G28" s="93" t="s">
+        <v>168</v>
+      </c>
+      <c r="H28" s="96">
+        <v>43958</v>
+      </c>
+      <c r="I28" s="93" t="s">
+        <v>151</v>
+      </c>
       <c r="J28" s="18"/>
       <c r="K28" s="18"/>
       <c r="L28" s="38"/>
@@ -6379,7 +6407,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P76"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>

--- a/Documents/Product & Sprint Backlog Doc (1).xlsx
+++ b/Documents/Product & Sprint Backlog Doc (1).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="818" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="818" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="BneWorkBookProperties" sheetId="4" state="veryHidden" r:id="rId1"/>
@@ -705,7 +705,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="168">
   <si>
     <t>MoSCoW ID</t>
   </si>
@@ -1200,9 +1200,6 @@
   </si>
   <si>
     <t>Test the Project is working Fine Both angullar and spring boot.</t>
-  </si>
-  <si>
-    <t>31-04-2020</t>
   </si>
   <si>
     <t>PECUNIABANK:012</t>
@@ -5231,8 +5228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P53"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -5720,8 +5717,8 @@
         <v>140</v>
       </c>
       <c r="E19" s="8"/>
-      <c r="F19" s="98" t="s">
-        <v>165</v>
+      <c r="F19" s="98">
+        <v>43922</v>
       </c>
       <c r="G19" s="87" t="s">
         <v>117</v>
@@ -5790,8 +5787,8 @@
         <v>147</v>
       </c>
       <c r="E22" s="8"/>
-      <c r="F22" s="94" t="s">
-        <v>165</v>
+      <c r="F22" s="94">
+        <v>43922</v>
       </c>
       <c r="G22" s="87" t="s">
         <v>149</v>
@@ -5839,7 +5836,7 @@
       </c>
       <c r="E24" s="18"/>
       <c r="F24" s="96">
-        <v>43952</v>
+        <v>43953</v>
       </c>
       <c r="G24" s="93" t="s">
         <v>117</v>
@@ -5899,11 +5896,11 @@
     <row r="27" spans="1:16" s="4" customFormat="1" ht="38.25">
       <c r="A27" s="18"/>
       <c r="B27" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C27" s="18"/>
       <c r="D27" s="91" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E27" s="18"/>
       <c r="F27" s="18"/>
@@ -5928,7 +5925,7 @@
         <v>43955</v>
       </c>
       <c r="G28" s="93" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H28" s="96">
         <v>43958</v>
@@ -6407,7 +6404,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A35" workbookViewId="0">
       <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
